--- a/biology/Médecine/Classe_ATC_H02/Classe_ATC_H02.xlsx
+++ b/biology/Médecine/Classe_ATC_H02/Classe_ATC_H02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une section du code ATC :
 H Hormones systémiques, hormones sexuelles exclues
-H02 Corticoïdes à usage systémique[1].
+H02 Corticoïdes à usage systémique.
 </t>
         </is>
       </c>
@@ -515,12 +527,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>H02AA Minéralocorticoïdes
-H02AA01 Aldostérone
+          <t>H02AA Minéralocorticoïdes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>H02AA01 Aldostérone
 H02AA02 Fludrocortisone
-H02AA03 Désoxycortone (en)
-H02AB Glucocorticoïdes
-H02AB01 Bétaméthasone
+H02AA03 Désoxycortone (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_H02</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_H02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>H02A Corticoïdes à usage systémique non associés</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>H02AB Glucocorticoïdes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>H02AB01 Bétaméthasone
 H02AB02 Dexaméthasone
 H02AB03 Fluocortolone (en)
 H02AB04 Méthylprednisolone
@@ -543,38 +594,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Classe_ATC_H02</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_H02</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>H02B Corticoïdes à usage systémique en association</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>H02BX Corticoïdes à usage systémique en association
-H02BX01 Méthylprednisolone, associations
-QH02BX90 Dexaméthasone, associations</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -596,13 +615,55 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>H02B Corticoïdes à usage systémique en association</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>H02BX Corticoïdes à usage systémique en association</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>H02BX01 Méthylprednisolone, associations
+QH02BX90 Dexaméthasone, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_H02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_H02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>H02C Antihormones surrénaliennes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>H02CA Inhibiteurs de corticoïdes
-H02CA01 Trilostane (en)</t>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>H02CA Inhibiteurs de corticoïdes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>H02CA01 Trilostane (en)</t>
         </is>
       </c>
     </row>
